--- a/fileupload/uploads/combined.xlsx
+++ b/fileupload/uploads/combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>MES_ANIVERSARIO</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mes de Aniversario</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +469,7 @@
       <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +485,7 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +501,7 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +517,7 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +533,7 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +549,7 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +565,7 @@
       <c r="C8" t="n">
         <v>2</v>
       </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,6 +581,7 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -584,6 +597,7 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -599,6 +613,7 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +629,7 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -629,6 +645,7 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -644,6 +661,7 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -659,6 +677,7 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -674,6 +693,7 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -689,6 +709,7 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -704,6 +725,7 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -719,6 +741,7 @@
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -734,6 +757,7 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -749,6 +773,7 @@
       <c r="C21" t="n">
         <v>2</v>
       </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -764,6 +789,7 @@
       <c r="C22" t="n">
         <v>2</v>
       </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -779,6 +805,7 @@
       <c r="C23" t="n">
         <v>2</v>
       </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -794,6 +821,7 @@
       <c r="C24" t="n">
         <v>2</v>
       </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -809,6 +837,7 @@
       <c r="C25" t="n">
         <v>2</v>
       </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -824,6 +853,7 @@
       <c r="C26" t="n">
         <v>2</v>
       </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -839,6 +869,7 @@
       <c r="C27" t="n">
         <v>2</v>
       </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -854,6 +885,7 @@
       <c r="C28" t="n">
         <v>2</v>
       </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -869,6 +901,7 @@
       <c r="C29" t="n">
         <v>2</v>
       </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -884,6 +917,7 @@
       <c r="C30" t="n">
         <v>2</v>
       </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -899,6 +933,7 @@
       <c r="C31" t="n">
         <v>2</v>
       </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -914,6 +949,7 @@
       <c r="C32" t="n">
         <v>2</v>
       </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -929,6 +965,7 @@
       <c r="C33" t="n">
         <v>2</v>
       </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -944,6 +981,7 @@
       <c r="C34" t="n">
         <v>2</v>
       </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -959,6 +997,7 @@
       <c r="C35" t="n">
         <v>2</v>
       </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -974,6 +1013,7 @@
       <c r="C36" t="n">
         <v>2</v>
       </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -989,6 +1029,7 @@
       <c r="C37" t="n">
         <v>2</v>
       </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1004,6 +1045,7 @@
       <c r="C38" t="n">
         <v>2</v>
       </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1019,6 +1061,7 @@
       <c r="C39" t="n">
         <v>2</v>
       </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1034,6 +1077,7 @@
       <c r="C40" t="n">
         <v>2</v>
       </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1049,6 +1093,7 @@
       <c r="C41" t="n">
         <v>2</v>
       </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1064,6 +1109,7 @@
       <c r="C42" t="n">
         <v>2</v>
       </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1079,6 +1125,7 @@
       <c r="C43" t="n">
         <v>2</v>
       </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1094,6 +1141,7 @@
       <c r="C44" t="n">
         <v>2</v>
       </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1109,6 +1157,7 @@
       <c r="C45" t="n">
         <v>2</v>
       </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1123,6 +1172,727 @@
       </c>
       <c r="C46" t="n">
         <v>2</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>George Washington</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1732-02-22</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>John Adams</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1735-10-19</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Thomas Jefferson</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1743-04-13</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>James Madison</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1751-03-16</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>James Monroe</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1758-04-28</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>John Adams</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1767-07-11</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Andrew Jackson</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1767-03-15</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Martin Van Buren</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1782-12-05</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>William Harrison</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1773-02-09</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>John Tyler</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1790-03-29</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>James Polk</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1795-11-02</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Zachary Taylor</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1784-11-24</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Millard Fillmore</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1800-01-07</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Franklin Pierce</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1804-11-23</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>James Buchanan</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1791-04-23</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Abraham Lincoln</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1809-02-12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Andrew Johnson</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1808-12-29</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ulysses Grant</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1822-04-27</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Rutherford Hayes</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1822-10-04</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>James Garfield</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1831-11-19</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chester Arthur</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1829-10-05</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Benjamin Harrison</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1833-08-20</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Grover Cleveland</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1837-03-18</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>William McKinley</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1843-01-29</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Theodore Roosevelt</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1858-10-27</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>William Taft</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1857-09-15</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Woodrow Wilson</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1856-12-28</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Warren Harding</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1865-11-02</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Calvin Coolidge</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1872-07-04</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Herbert Hoover</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1874-08-10</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Franklin Roosevelt</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1882-01-30</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Harry Truman</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1884-05-08</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Dwight Eisenhower</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1890-10-14</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>John Kennedy</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1917-05-29</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Lyndon Johnson</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1908-08-27</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Richard Nixon</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1913-01-09</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Gerald Ford</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1913-07-14</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>James Carter</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1924-10-01</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ronald Reagan</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1911-02-06</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>George Bush</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1924-06-12</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>William Clinton</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1946-08-19</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>George Bush</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1946-07-06</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Joseph Biden</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1942-11-20</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Barack Obama</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1961-08-04</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Donald Trump</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1946-06-14</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
